--- a/MainTop/15.01.2025/ПЕЧАТЬ_в стол.xlsx
+++ b/MainTop/15.01.2025/ПЕЧАТЬ_в стол.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\15.01.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BC0F7B-A2CE-4A15-97BD-528FC91F0926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F96EFE-32C5-4C4E-9067-01DB4FFC62C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -623,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="O6" sqref="O5:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,12 +3194,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H66">
-        <f>SUM(H2:H65)</f>
-        <v>516</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
